--- a/biology/Zoologie/Catapaecilma/Catapaecilma.xlsx
+++ b/biology/Zoologie/Catapaecilma/Catapaecilma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catapaecilma est un genre de lépidoptères (papillons) asiatiques de la famille des Lycaenidae, de la sous-famille des Theclinae et de la tribu des Catapaecilmatini.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Catapaecilma a été décrit en 1879 par le zoologiste britannique Arthur Gardiner Butler[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Catapaecilma a été décrit en 1879 par le zoologiste britannique Arthur Gardiner Butler,.
 Son espèce type est Hypochrysops elegans Druce, 1873.
 </t>
         </is>
@@ -543,15 +557,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après FUNET Tree of Life  (19 mai 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après FUNET Tree of Life  (19 mai 2019) :
 Catapaecilma major Druce, 1895
 Catapaecilma elegans (Druce, 1873)
 Catapaecilma evansi Pendlebury, 1933
 Catapaecilma lila Eliot, 1967
 Catapaecilma harmani Cassidy, 1982
-Catapaecilma subochrea (Elwes, [1893])
+Catapaecilma subochrea (Elwes, )
 Catapaecilma gracilis Semper, 1890
 Catapaecilma nakamotoi Hayashi, 1979
 Catapaecilma nuydai Takanami, 1988
